--- a/个人日报_邵博超.xlsx
+++ b/个人日报_邵博超.xlsx
@@ -185,7 +185,7 @@
   </si>
   <si>
     <r>
-      <t>Intert</t>
+      <t>Internet</t>
     </r>
     <r>
       <rPr>
@@ -336,6 +336,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>使用</t>
     </r>
     <r>
@@ -367,12 +372,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="70">
+  <fonts count="67">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -475,11 +480,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -491,12 +491,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -504,11 +498,6 @@
     <font>
       <sz val="10"/>
       <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -641,37 +630,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,15 +650,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -703,21 +678,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="60"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -732,22 +731,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="56"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -758,27 +766,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="35">
@@ -808,7 +797,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,19 +863,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,37 +905,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,13 +947,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,79 +971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,17 +1417,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
       </left>
-      <right style="thin">
-        <color indexed="23"/>
+      <right style="double">
+        <color indexed="63"/>
       </right>
-      <top style="thin">
-        <color indexed="23"/>
+      <top style="double">
+        <color indexed="63"/>
       </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1458,21 +1458,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1482,13 +1467,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
       <top style="thin">
-        <color indexed="62"/>
+        <color indexed="23"/>
       </top>
-      <bottom style="double">
-        <color indexed="62"/>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1498,6 +1487,24 @@
       <top/>
       <bottom style="medium">
         <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1516,185 +1523,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="15" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="14" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1964,7 +1953,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1976,228 +1965,224 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="39" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="48" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="39" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="19" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="48" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="19" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="48" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15223,7 +15208,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15296,7 +15281,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15369,7 +15354,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15442,7 +15427,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15515,7 +15500,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15588,7 +15573,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15943,383 +15928,383 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="138" customWidth="1"/>
-    <col min="2" max="2" width="9" style="138"/>
-    <col min="3" max="3" width="8.33333333333333" style="138" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="138"/>
+    <col min="1" max="1" width="7.5" style="137" customWidth="1"/>
+    <col min="2" max="2" width="9" style="137"/>
+    <col min="3" max="3" width="8.33333333333333" style="137" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" s="137" customFormat="1" ht="22.2" spans="1:1">
-      <c r="A1" s="93"/>
-    </row>
-    <row r="2" s="137" customFormat="1" ht="22.2" spans="1:1">
-      <c r="A2" s="93" t="s">
+    <row r="1" s="136" customFormat="1" ht="22.2" spans="1:1">
+      <c r="A1" s="92"/>
+    </row>
+    <row r="2" s="136" customFormat="1" ht="22.2" spans="1:1">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="137" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A3" s="96" t="s">
+    <row r="3" s="136" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A3" s="95" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="137" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A4" s="139"/>
-    </row>
-    <row r="5" s="137" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A5" s="139"/>
-    </row>
-    <row r="6" s="137" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A6" s="139"/>
-    </row>
-    <row r="7" s="137" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A7" s="139"/>
-    </row>
-    <row r="8" s="137" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A8" s="139"/>
-    </row>
-    <row r="9" s="137" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A9" s="139"/>
-    </row>
-    <row r="10" s="137" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A10" s="139"/>
-    </row>
-    <row r="11" s="137" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A11" s="139"/>
-    </row>
-    <row r="12" s="137" customFormat="1" ht="17.4" spans="1:3">
-      <c r="A12" s="139"/>
-      <c r="C12" s="140"/>
-    </row>
-    <row r="13" s="137" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A13" s="139"/>
-    </row>
-    <row r="14" s="137" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A14" s="141"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-    </row>
-    <row r="15" s="137" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
-      <c r="A15" s="143" t="s">
+    <row r="4" s="136" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A4" s="138"/>
+    </row>
+    <row r="5" s="136" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A5" s="138"/>
+    </row>
+    <row r="6" s="136" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A6" s="138"/>
+    </row>
+    <row r="7" s="136" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A7" s="138"/>
+    </row>
+    <row r="8" s="136" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A8" s="138"/>
+    </row>
+    <row r="9" s="136" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A9" s="138"/>
+    </row>
+    <row r="10" s="136" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A10" s="138"/>
+    </row>
+    <row r="11" s="136" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A11" s="138"/>
+    </row>
+    <row r="12" s="136" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A12" s="138"/>
+      <c r="C12" s="139"/>
+    </row>
+    <row r="13" s="136" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A13" s="138"/>
+    </row>
+    <row r="14" s="136" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A14" s="140"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+    </row>
+    <row r="15" s="136" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
+      <c r="A15" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-    </row>
-    <row r="16" s="137" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A16" s="145"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-    </row>
-    <row r="17" s="137" customFormat="1" ht="18" spans="1:9">
-      <c r="A17" s="146" t="s">
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+    </row>
+    <row r="16" s="136" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A16" s="144"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+    </row>
+    <row r="17" s="136" customFormat="1" ht="18" spans="1:9">
+      <c r="A17" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-    </row>
-    <row r="18" s="137" customFormat="1" ht="18" spans="1:9">
-      <c r="A18" s="106">
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+    </row>
+    <row r="18" s="136" customFormat="1" ht="18" spans="1:9">
+      <c r="A18" s="105">
         <v>40142</v>
       </c>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-    </row>
-    <row r="19" s="137" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A19" s="141"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-    </row>
-    <row r="20" s="137" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A20" s="141"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-    </row>
-    <row r="21" s="137" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A21" s="141"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-    </row>
-    <row r="22" s="137" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A22" s="141"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-    </row>
-    <row r="23" s="137" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="141"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-    </row>
-    <row r="24" s="137" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="141"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-    </row>
-    <row r="25" s="137" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="141"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-    </row>
-    <row r="26" s="137" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="141"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-    </row>
-    <row r="27" s="137" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="141"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-    </row>
-    <row r="28" s="137" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="141"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-    </row>
-    <row r="29" s="137" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="141"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-    </row>
-    <row r="30" s="137" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="141"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-    </row>
-    <row r="31" s="137" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="141"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-    </row>
-    <row r="32" s="137" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A32" s="141"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-    </row>
-    <row r="33" s="137" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A33" s="147" t="s">
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+    </row>
+    <row r="19" s="136" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A19" s="140"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+    </row>
+    <row r="20" s="136" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A20" s="140"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+    </row>
+    <row r="21" s="136" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A21" s="140"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+    </row>
+    <row r="22" s="136" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A22" s="140"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+    </row>
+    <row r="23" s="136" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A23" s="140"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+    </row>
+    <row r="24" s="136" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A24" s="140"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+    </row>
+    <row r="25" s="136" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A25" s="140"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+    </row>
+    <row r="26" s="136" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A26" s="140"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+    </row>
+    <row r="27" s="136" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A27" s="140"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+    </row>
+    <row r="28" s="136" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+    </row>
+    <row r="29" s="136" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A29" s="140"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+    </row>
+    <row r="30" s="136" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A30" s="140"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+    </row>
+    <row r="31" s="136" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A31" s="140"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+    </row>
+    <row r="32" s="136" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A32" s="140"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+    </row>
+    <row r="33" s="136" customFormat="1" ht="19.2" spans="1:10">
+      <c r="A33" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="142"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="152"/>
-    </row>
-    <row r="34" s="137" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A34" s="148" t="s">
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="151"/>
+    </row>
+    <row r="34" s="136" customFormat="1" ht="19.2" spans="1:10">
+      <c r="A34" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="142"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="152"/>
-    </row>
-    <row r="35" s="137" customFormat="1" spans="1:10">
-      <c r="A35" s="149"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="152"/>
-    </row>
-    <row r="36" s="137" customFormat="1" spans="1:9">
-      <c r="A36" s="142"/>
-      <c r="B36" s="142"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="142"/>
-    </row>
-    <row r="37" s="137" customFormat="1"/>
-    <row r="38" s="137" customFormat="1"/>
-    <row r="39" s="137" customFormat="1"/>
-    <row r="40" s="137" customFormat="1"/>
-    <row r="41" s="137" customFormat="1"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="151"/>
+    </row>
+    <row r="35" s="136" customFormat="1" spans="1:10">
+      <c r="A35" s="148"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="151"/>
+    </row>
+    <row r="36" s="136" customFormat="1" spans="1:9">
+      <c r="A36" s="141"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+    </row>
+    <row r="37" s="136" customFormat="1"/>
+    <row r="38" s="136" customFormat="1"/>
+    <row r="39" s="136" customFormat="1"/>
+    <row r="40" s="136" customFormat="1"/>
+    <row r="41" s="136" customFormat="1"/>
     <row r="58" spans="1:1">
-      <c r="A58" s="150"/>
+      <c r="A58" s="149"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="151"/>
+      <c r="A59" s="150"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="153"/>
+      <c r="A101" s="152"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="153"/>
+      <c r="A102" s="152"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="153"/>
+      <c r="A103" s="152"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="153"/>
+      <c r="A104" s="152"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="153"/>
+      <c r="A105" s="152"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="153"/>
+      <c r="A106" s="152"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="153"/>
+      <c r="A107" s="152"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="153"/>
+      <c r="A108" s="152"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="153"/>
+      <c r="A109" s="152"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="153"/>
+      <c r="A110" s="152"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="153"/>
+      <c r="A111" s="152"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="153"/>
+      <c r="A112" s="152"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="153"/>
+      <c r="A113" s="152"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="153"/>
+      <c r="A114" s="152"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="153"/>
+      <c r="A115" s="152"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="153"/>
+      <c r="A116" s="152"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="153"/>
+      <c r="A117" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16703,208 +16688,208 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.5833333333333" style="122" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="122" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="122" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="122" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="122"/>
+    <col min="1" max="1" width="12.5833333333333" style="121" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="121" customWidth="1"/>
+    <col min="3" max="3" width="46.25" style="121" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="121" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="121"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.2" spans="1:5">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="124"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:4">
-      <c r="A2" s="126"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
     </row>
     <row r="3" ht="15.6" spans="1:4">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="126" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="121" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A4" s="128">
+    <row r="4" s="120" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A4" s="127">
         <v>1</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="130">
+      <c r="D4" s="129">
         <v>40142</v>
       </c>
     </row>
-    <row r="5" s="121" customFormat="1" spans="1:4">
-      <c r="A5" s="128"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="130"/>
-    </row>
-    <row r="6" s="121" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A6" s="128"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="130"/>
-    </row>
-    <row r="7" s="121" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A7" s="128"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130"/>
-    </row>
-    <row r="8" s="121" customFormat="1" spans="1:4">
-      <c r="A8" s="128"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="130"/>
-    </row>
-    <row r="9" s="121" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A9" s="128"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="130"/>
-    </row>
-    <row r="10" s="121" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A10" s="128"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="130"/>
-    </row>
-    <row r="11" s="121" customFormat="1" spans="1:4">
-      <c r="A11" s="128"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="130"/>
-    </row>
-    <row r="12" s="121" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A12" s="128"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="130"/>
-    </row>
-    <row r="13" s="121" customFormat="1" spans="1:4">
-      <c r="A13" s="128"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="130"/>
-    </row>
-    <row r="14" s="121" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A14" s="128"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="130"/>
-    </row>
-    <row r="15" s="121" customFormat="1" spans="1:4">
-      <c r="A15" s="128"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="130"/>
-    </row>
-    <row r="16" s="121" customFormat="1" spans="1:4">
-      <c r="A16" s="128"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="130"/>
-    </row>
-    <row r="17" s="121" customFormat="1" spans="1:4">
-      <c r="A17" s="128"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="130"/>
-    </row>
-    <row r="18" s="121" customFormat="1" spans="1:4">
-      <c r="A18" s="128"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="130"/>
+    <row r="5" s="120" customFormat="1" spans="1:4">
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="129"/>
+    </row>
+    <row r="6" s="120" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A6" s="127"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129"/>
+    </row>
+    <row r="7" s="120" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A7" s="127"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+    </row>
+    <row r="8" s="120" customFormat="1" spans="1:4">
+      <c r="A8" s="127"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="129"/>
+    </row>
+    <row r="9" s="120" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A9" s="127"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="129"/>
+    </row>
+    <row r="10" s="120" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A10" s="127"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="129"/>
+    </row>
+    <row r="11" s="120" customFormat="1" spans="1:4">
+      <c r="A11" s="127"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="129"/>
+    </row>
+    <row r="12" s="120" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A12" s="127"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="129"/>
+    </row>
+    <row r="13" s="120" customFormat="1" spans="1:4">
+      <c r="A13" s="127"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="129"/>
+    </row>
+    <row r="14" s="120" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A14" s="127"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+    </row>
+    <row r="15" s="120" customFormat="1" spans="1:4">
+      <c r="A15" s="127"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="129"/>
+    </row>
+    <row r="16" s="120" customFormat="1" spans="1:4">
+      <c r="A16" s="127"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="129"/>
+    </row>
+    <row r="17" s="120" customFormat="1" spans="1:4">
+      <c r="A17" s="127"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="129"/>
+    </row>
+    <row r="18" s="120" customFormat="1" spans="1:4">
+      <c r="A18" s="127"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="129"/>
     </row>
     <row r="19" ht="15.6" spans="1:4">
-      <c r="A19" s="128"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="130"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="129"/>
     </row>
     <row r="20" ht="15.6" spans="1:4">
-      <c r="A20" s="128"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="130"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="129"/>
     </row>
     <row r="21" ht="15.6" spans="1:4">
-      <c r="A21" s="128"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="130"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="129"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="136"/>
+      <c r="A95" s="135"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="136"/>
+      <c r="A96" s="135"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="136"/>
+      <c r="A97" s="135"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="136"/>
+      <c r="A98" s="135"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="136"/>
+      <c r="A99" s="135"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="136"/>
+      <c r="A100" s="135"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="136"/>
+      <c r="A101" s="135"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="136"/>
+      <c r="A102" s="135"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="136"/>
+      <c r="A103" s="135"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="136"/>
+      <c r="A104" s="135"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="136"/>
+      <c r="A105" s="135"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="136"/>
+      <c r="A106" s="135"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="136"/>
+      <c r="A107" s="135"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="136"/>
+      <c r="A108" s="135"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="136"/>
+      <c r="A109" s="135"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="136"/>
+      <c r="A110" s="135"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="136"/>
+      <c r="A111" s="135"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16924,327 +16909,327 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="91" customWidth="1"/>
-    <col min="2" max="4" width="9.58333333333333" style="91" customWidth="1"/>
-    <col min="5" max="5" width="13.0833333333333" style="91" customWidth="1"/>
-    <col min="6" max="6" width="9.58333333333333" style="91" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="91" customWidth="1"/>
-    <col min="8" max="8" width="9.58333333333333" style="91" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="91"/>
+    <col min="1" max="1" width="9.25" style="90" customWidth="1"/>
+    <col min="2" max="4" width="9.58333333333333" style="90" customWidth="1"/>
+    <col min="5" max="5" width="13.0833333333333" style="90" customWidth="1"/>
+    <col min="6" max="6" width="9.58333333333333" style="90" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="90" customWidth="1"/>
+    <col min="8" max="8" width="9.58333333333333" style="90" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" s="86" customFormat="1" ht="22.8" spans="1:1">
-      <c r="A1" s="92"/>
-    </row>
-    <row r="2" s="86" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A2" s="93" t="s">
+    <row r="1" s="85" customFormat="1" ht="22.8" spans="1:1">
+      <c r="A1" s="91"/>
+    </row>
+    <row r="2" s="85" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
+      <c r="A2" s="92" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="87" customFormat="1" ht="22.8" spans="1:9">
-      <c r="A3" s="94" t="s">
+    <row r="3" s="86" customFormat="1" ht="22.8" spans="1:9">
+      <c r="A3" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-    </row>
-    <row r="4" s="86" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A4" s="96" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+    </row>
+    <row r="4" s="85" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A4" s="95" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="86" customFormat="1" ht="18" spans="1:1">
-      <c r="A5" s="97"/>
-    </row>
-    <row r="6" s="86" customFormat="1" ht="18" spans="1:1">
-      <c r="A6" s="97"/>
-    </row>
-    <row r="7" s="86" customFormat="1" ht="18" spans="1:1">
-      <c r="A7" s="97"/>
-    </row>
-    <row r="8" s="86" customFormat="1" ht="18" spans="1:1">
-      <c r="A8" s="97"/>
-    </row>
-    <row r="9" s="86" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
-      <c r="A9" s="97"/>
-    </row>
-    <row r="10" s="86" customFormat="1" ht="18" spans="1:1">
-      <c r="A10" s="97"/>
-    </row>
-    <row r="11" s="86" customFormat="1" ht="18" spans="1:1">
-      <c r="A11" s="97"/>
-    </row>
-    <row r="12" s="86" customFormat="1" ht="18" spans="1:1">
-      <c r="A12" s="97"/>
-    </row>
-    <row r="13" s="86" customFormat="1" ht="18" spans="1:1">
-      <c r="A13" s="97"/>
-    </row>
-    <row r="14" s="86" customFormat="1" ht="18" spans="1:1">
-      <c r="A14" s="97"/>
-    </row>
-    <row r="15" s="86" customFormat="1" ht="18" spans="1:8">
-      <c r="A15" s="98"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-    </row>
-    <row r="16" s="88" customFormat="1" ht="45" spans="1:8">
-      <c r="A16" s="100" t="s">
+    <row r="5" s="85" customFormat="1" ht="18" spans="1:1">
+      <c r="A5" s="96"/>
+    </row>
+    <row r="6" s="85" customFormat="1" ht="18" spans="1:1">
+      <c r="A6" s="96"/>
+    </row>
+    <row r="7" s="85" customFormat="1" ht="18" spans="1:1">
+      <c r="A7" s="96"/>
+    </row>
+    <row r="8" s="85" customFormat="1" ht="18" spans="1:1">
+      <c r="A8" s="96"/>
+    </row>
+    <row r="9" s="85" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
+      <c r="A9" s="96"/>
+    </row>
+    <row r="10" s="85" customFormat="1" ht="18" spans="1:1">
+      <c r="A10" s="96"/>
+    </row>
+    <row r="11" s="85" customFormat="1" ht="18" spans="1:1">
+      <c r="A11" s="96"/>
+    </row>
+    <row r="12" s="85" customFormat="1" ht="18" spans="1:1">
+      <c r="A12" s="96"/>
+    </row>
+    <row r="13" s="85" customFormat="1" ht="18" spans="1:1">
+      <c r="A13" s="96"/>
+    </row>
+    <row r="14" s="85" customFormat="1" ht="18" spans="1:1">
+      <c r="A14" s="96"/>
+    </row>
+    <row r="15" s="85" customFormat="1" ht="18" spans="1:8">
+      <c r="A15" s="97"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+    </row>
+    <row r="16" s="87" customFormat="1" ht="45" spans="1:8">
+      <c r="A16" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-    </row>
-    <row r="17" s="88" customFormat="1" spans="1:8">
-      <c r="A17" s="101"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-    </row>
-    <row r="18" s="86" customFormat="1" ht="53.4" spans="1:8">
-      <c r="A18" s="104" t="s">
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+    </row>
+    <row r="17" s="87" customFormat="1" spans="1:8">
+      <c r="A17" s="100"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+    </row>
+    <row r="18" s="85" customFormat="1" ht="53.4" spans="1:8">
+      <c r="A18" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-    </row>
-    <row r="19" s="86" customFormat="1" ht="18" spans="1:8">
-      <c r="A19" s="98"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-    </row>
-    <row r="20" s="86" customFormat="1" ht="46.2" spans="1:8">
-      <c r="A20" s="105"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-    </row>
-    <row r="21" s="86" customFormat="1" ht="18" spans="1:8">
-      <c r="A21" s="106"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-    </row>
-    <row r="22" s="86" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A22" s="107" t="s">
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+    </row>
+    <row r="19" s="85" customFormat="1" ht="18" spans="1:8">
+      <c r="A19" s="97"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+    </row>
+    <row r="20" s="85" customFormat="1" ht="46.2" spans="1:8">
+      <c r="A20" s="104"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+    </row>
+    <row r="21" s="85" customFormat="1" ht="18" spans="1:8">
+      <c r="A21" s="105"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+    </row>
+    <row r="22" s="85" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A22" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-    </row>
-    <row r="23" s="86" customFormat="1" ht="18" spans="1:8">
-      <c r="A23" s="98"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-    </row>
-    <row r="24" s="86" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-    </row>
-    <row r="25" s="86" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A25" s="98"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-    </row>
-    <row r="26" s="86" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A26" s="98"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-    </row>
-    <row r="27" s="86" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A27" s="98"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-    </row>
-    <row r="28" s="86" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A28" s="98"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-    </row>
-    <row r="29" s="89" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A29" s="109" t="s">
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+    </row>
+    <row r="23" s="85" customFormat="1" ht="18" spans="1:8">
+      <c r="A23" s="97"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+    </row>
+    <row r="24" s="85" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A24" s="97"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+    </row>
+    <row r="25" s="85" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A25" s="97"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+    </row>
+    <row r="26" s="85" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A26" s="97"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+    </row>
+    <row r="27" s="85" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A27" s="97"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+    </row>
+    <row r="28" s="85" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A28" s="97"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+    </row>
+    <row r="29" s="88" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A29" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-    </row>
-    <row r="30" s="89" customFormat="1" spans="1:8">
-      <c r="A30" s="111"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-    </row>
-    <row r="31" s="89" customFormat="1" spans="1:8">
-      <c r="A31" s="111"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-    </row>
-    <row r="32" s="89" customFormat="1" spans="1:8">
-      <c r="A32" s="111"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-    </row>
-    <row r="33" s="90" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A33" s="113" t="s">
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+    </row>
+    <row r="30" s="88" customFormat="1" spans="1:8">
+      <c r="A30" s="110"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+    </row>
+    <row r="31" s="88" customFormat="1" spans="1:8">
+      <c r="A31" s="110"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+    </row>
+    <row r="32" s="88" customFormat="1" spans="1:8">
+      <c r="A32" s="110"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+    </row>
+    <row r="33" s="89" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A33" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="113" t="s">
+      <c r="B33" s="113"/>
+      <c r="C33" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="113" t="s">
+      <c r="D33" s="113"/>
+      <c r="E33" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="114"/>
-      <c r="G33" s="115" t="s">
+      <c r="F33" s="113"/>
+      <c r="G33" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="114"/>
-    </row>
-    <row r="34" s="90" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A34" s="113" t="s">
+      <c r="H33" s="113"/>
+    </row>
+    <row r="34" s="89" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A34" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="113" t="s">
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-    </row>
-    <row r="35" s="86" customFormat="1" ht="18" spans="1:8">
-      <c r="A35" s="98"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-    </row>
-    <row r="36" s="86" customFormat="1" ht="19.2" spans="1:8">
-      <c r="A36" s="117"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-    </row>
-    <row r="37" s="86" customFormat="1" ht="18.6" spans="1:8">
-      <c r="A37" s="118"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-    </row>
-    <row r="38" s="86" customFormat="1"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+    </row>
+    <row r="35" s="85" customFormat="1" ht="18" spans="1:8">
+      <c r="A35" s="97"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+    </row>
+    <row r="36" s="85" customFormat="1" ht="19.2" spans="1:8">
+      <c r="A36" s="116"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+    </row>
+    <row r="37" s="85" customFormat="1" ht="18.6" spans="1:8">
+      <c r="A37" s="117"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+    </row>
+    <row r="38" s="85" customFormat="1"/>
     <row r="55" spans="1:1">
-      <c r="A55" s="119"/>
+      <c r="A55" s="118"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="120"/>
+      <c r="A56" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17265,7 +17250,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:I11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17329,7 +17314,7 @@
       <c r="H3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="8"/>
@@ -17443,7 +17428,7 @@
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="85" t="s">
+      <c r="J10" s="84" t="s">
         <v>47</v>
       </c>
     </row>
@@ -17464,7 +17449,7 @@
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="85" t="s">
+      <c r="J11" s="84" t="s">
         <v>47</v>
       </c>
     </row>
@@ -17485,7 +17470,7 @@
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="84" t="s">
         <v>47</v>
       </c>
     </row>
@@ -17506,7 +17491,7 @@
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="85" t="s">
+      <c r="J13" s="84" t="s">
         <v>47</v>
       </c>
     </row>
